--- a/templates/dataplant/MIAPPE_Observation_unit_and_sample.xlsx
+++ b/templates/dataplant/MIAPPE_Observation_unit_and_sample.xlsx
@@ -1,25 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26312"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\Swate-templates-Hannah\templates\dataplant\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E9003A-6D3B-4919-BFC5-154FD2EF87F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="712" documentId="8_{0AD60DAE-C5BE-48A9-A89D-781A95FE34A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5319F011-5B2E-4CA4-8FED-B790537BBDAA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle2" sheetId="1" r:id="rId1"/>
-    <sheet name="SwateTemplateMetadata" sheetId="2" r:id="rId2"/>
+    <sheet name="Tabelle2" sheetId="4" r:id="rId1"/>
+    <sheet name="SwateTemplateMetadata" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191028"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -28,162 +31,89 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author/>
+    <author>tc={8BF36169-509E-40E6-A863-E736F38BEFB5}</author>
+    <author>tc={2BB17859-3F3E-489F-BEA0-FB721FD4DF41}</author>
+    <author>tc={DEF52EF9-3A29-4CF0-B150-5FFBB68950E8}</author>
+    <author>tc={2AD88D6D-CB7D-4507-9375-940DEBECC61F}</author>
+    <author>tc={D7785EFF-39BE-441A-928F-0C6291AF0EEC}</author>
+    <author>tc={6E767040-48A5-476C-9DA9-E33D30A30F95}</author>
+    <author>tc={1E7522A5-945C-4EE6-A494-4AA4493A4156}</author>
+    <author>tc={054F6C2B-DCE6-419B-9EB8-82368D9E43BC}</author>
+    <author>tc={7FBEE1EC-59BE-44C4-B145-187D73ACDC36}</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{8BF36169-509E-40E6-A863-E736F38BEFB5}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The unique identifier of this template. It will be auto generated.
 Reply:
     id=c484dc51-5ba0-455c-8b1b-359642fca2ef</t>
-        </r>
       </text>
     </comment>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="A2" authorId="1" shapeId="0" xr:uid="{2BB17859-3F3E-489F-BEA0-FB721FD4DF41}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The name of the Swate template.</t>
-        </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="A3" authorId="2" shapeId="0" xr:uid="{DEF52EF9-3A29-4CF0-B150-5FFBB68950E8}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The current version of this template in SemVer notation.</t>
-        </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="A4" authorId="3" shapeId="0" xr:uid="{2AD88D6D-CB7D-4507-9375-940DEBECC61F}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The description of this template. Use few sentences for succinctness.</t>
-        </r>
       </text>
     </comment>
-    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+    <comment ref="A5" authorId="4" shapeId="0" xr:uid="{D7785EFF-39BE-441A-928F-0C6291AF0EEC}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</t>
-        </r>
       </text>
     </comment>
-    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
+    <comment ref="A6" authorId="5" shapeId="0" xr:uid="{6E767040-48A5-476C-9DA9-E33D30A30F95}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The name of the Swate annotation table in the workbook of the template's excel file.</t>
-        </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
+    <comment ref="A7" authorId="6" shapeId="0" xr:uid="{1E7522A5-945C-4EE6-A494-4AA4493A4156}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms.</t>
-        </r>
       </text>
     </comment>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
+    <comment ref="A11" authorId="7" shapeId="0" xr:uid="{054F6C2B-DCE6-419B-9EB8-82368D9E43BC}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     A list of all tags associated with this template. Tags are realized as Terms.</t>
-        </r>
       </text>
     </comment>
-    <comment ref="A15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
+    <comment ref="A15" authorId="8" shapeId="0" xr:uid="{7FBEE1EC-59BE-44C4-B145-187D73ACDC36}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The author(s) of this template.</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -191,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="102">
   <si>
     <t>Source Name</t>
   </si>
@@ -223,43 +153,37 @@
     <t>Term Accession Number (MIAPPE:0073)</t>
   </si>
   <si>
+    <t>Characteristic [Plant structure development stage]</t>
+  </si>
+  <si>
+    <t>Term Source REF (MIAPPE:0077)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (MIAPPE:0077)</t>
+  </si>
+  <si>
+    <t>Characteristic [Plant anatomical entity]</t>
+  </si>
+  <si>
+    <t>Term Source REF (MIAPPE:0078)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (MIAPPE:0078)</t>
+  </si>
+  <si>
+    <t>Protocol REF</t>
+  </si>
+  <si>
+    <t>Parameter [Collection date]</t>
+  </si>
+  <si>
+    <t>Term Source REF (MIAPPE:0080)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (MIAPPE:0080)</t>
+  </si>
+  <si>
     <t>Sample Name</t>
-  </si>
-  <si>
-    <t>Characteristic [Plant structure development stage]</t>
-  </si>
-  <si>
-    <t>Term Source REF (MIAPPE:0077)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (MIAPPE:0077)</t>
-  </si>
-  <si>
-    <t>Characteristic [Plant anatomical entity]</t>
-  </si>
-  <si>
-    <t>Term Source REF (MIAPPE:0078)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (MIAPPE:0078)</t>
-  </si>
-  <si>
-    <t>Parameter [Sample description]</t>
-  </si>
-  <si>
-    <t>Term Source REF (MIAPPE:0079)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (MIAPPE:0079)</t>
-  </si>
-  <si>
-    <t>Parameter [Collection date]</t>
-  </si>
-  <si>
-    <t>Term Source REF (MIAPPE:0080)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (MIAPPE:0080)</t>
   </si>
   <si>
     <t>Parameter [External ID]</t>
@@ -287,7 +211,7 @@
     <t>A description of the plant part (e.g. leaf) or the plant product (e.g. resin) from which the sample was taken, in the form of an accession number to a suitable controlled vocabulary (Plant Ontology).</t>
   </si>
   <si>
-    <t>Any information not captured by the other sample fields, including quantification, sample treatments and processing.</t>
+    <t>Replacement of the MIAPPE term "Sample description". Any information not captured by the other sample fields, including quantification, sample treatments and processing</t>
   </si>
   <si>
     <t>The date and time when the sample was collected / harvested</t>
@@ -313,7 +237,7 @@
 PO:0025161</t>
   </si>
   <si>
-    <t>Distal part of the leaf ; 100 mg of roots taken from 10 roots at 20°C, conserved in vacuum at 20 mM NaCl salinity, stored at -60 °C to -85 °C.</t>
+    <t>Distal part of the leaf ; 100 mg of roots taken from 10 roots at 20°C, conserved in vacuum at 20 mM NaCl salinity, stored at -60°C to -85°C.</t>
   </si>
   <si>
     <t>2005-08-15T15:52:01+00:00</t>
@@ -364,12 +288,15 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Template to describe the observation unit and the sample from a MIAPPE experiment, according to MIAPPE v1.1.</t>
+    <t>Template to describe the observation unit (source) and the sample from a MIAPPE experiment, according to MIAPPE v1.1.</t>
   </si>
   <si>
     <t>Organisation</t>
   </si>
   <si>
+    <t>DataPLANT</t>
+  </si>
+  <si>
     <t>Table</t>
   </si>
   <si>
@@ -382,12 +309,33 @@
     <t>ER</t>
   </si>
   <si>
+    <t>PRIDE</t>
+  </si>
+  <si>
+    <t>GEO</t>
+  </si>
+  <si>
+    <t>MetaboLights</t>
+  </si>
+  <si>
     <t>ER Term Accession Number</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/DPBO_1000098</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DPBO_1000096</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DPBO_1000097</t>
+  </si>
+  <si>
     <t>ER Term Source REF</t>
   </si>
   <si>
+    <t>DPBO</t>
+  </si>
+  <si>
     <t>#TAGS list</t>
   </si>
   <si>
@@ -397,12 +345,33 @@
     <t>MIAPPE</t>
   </si>
   <si>
+    <t>Observation Unit</t>
+  </si>
+  <si>
+    <t>Study</t>
+  </si>
+  <si>
+    <t>growth protocol</t>
+  </si>
+  <si>
     <t>Tags Term Accession Number</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/MIAPPE_0069</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MIAPPE_0009</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/EFO_0003789</t>
+  </si>
+  <si>
     <t>Tags Term Source REF</t>
   </si>
   <si>
+    <t>EFO</t>
+  </si>
+  <si>
     <t>#AUTHORS list</t>
   </si>
   <si>
@@ -461,75 +430,27 @@
   </si>
   <si>
     <t>Authors Role Term Source REF</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>DataPLANT</t>
-  </si>
-  <si>
-    <t>PRIDE</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/DPBO_1000098</t>
-  </si>
-  <si>
-    <t>DPBO</t>
-  </si>
-  <si>
-    <t>GEO</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/DPBO_1000096</t>
-  </si>
-  <si>
-    <t>MetaboLights</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/DPBO_1000097</t>
-  </si>
-  <si>
-    <t>Observation Unit</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/MIAPPE_0069</t>
-  </si>
-  <si>
-    <t>Study</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/MIAPPE_0009</t>
-  </si>
-  <si>
-    <t>growth protocol</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/EFO_0003789</t>
-  </si>
-  <si>
-    <t>EFO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0563C1"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -543,7 +464,7 @@
       <color rgb="FFF5F5F5"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -556,25 +477,25 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF217346"/>
-        <bgColor rgb="FF0E5C2F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9FCDB3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0E5C2F"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC21F3A"/>
-        <bgColor rgb="FF993366"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9FCDB3"/>
-        <bgColor rgb="FF99CCFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0E5C2F"/>
-        <bgColor rgb="FF217346"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -598,15 +519,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="thin">
         <color rgb="FFFEFEFE"/>
       </left>
-      <right style="thin">
-        <color rgb="FFFEFEFE"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFEFEFE"/>
-      </top>
+      <right/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -616,7 +533,9 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FFFEFEFE"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -641,143 +560,121 @@
       <right style="thin">
         <color rgb="FFFEFEFE"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FFFEFEFE"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="thick">
         <color rgb="FFFEFEFE"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color rgb="FFFEFEFE"/>
+      </right>
       <top/>
-      <bottom style="thin">
-        <color rgb="FFFEFEFE"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="14">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFEFEFE"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF0E5C2F"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF217346"/>
-      <rgbColor rgb="FF9FCDB3"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FFC21F3A"/>
-      <rgbColor rgb="FFF5F5F5"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0563C1"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -789,38 +686,42 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Hannah Dörpholz" id="{89C81692-8F7C-40C3-B7EE-D467298216E9}" userId="S::doerpholz@nfdi4plants.org::11965760-0d7d-4fc2-b8a7-915ac54fb326" providerId="AD"/>
+</personList>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="annotationTableSpottyHusky28" displayName="annotationTableSpottyHusky28" ref="A1:Z4" totalsRowShown="0">
-  <autoFilter ref="A1:Z4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="26">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Source Name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Characteristic [Observation unit type]"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Term Source REF (MIAPPE:0071)"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Term Accession Number (MIAPPE:0071)"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Characteristic [External ID]"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Term Source REF (MIAPPE:0072)"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Term Accession Number (MIAPPE:0072)"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Characteristic [Spatial distribution]"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Term Source REF (MIAPPE:0073)"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Term Accession Number (MIAPPE:0073)"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Characteristic [Plant structure development stage]"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Term Source REF (MIAPPE:0077)"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Term Accession Number (MIAPPE:0077)"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Characteristic [Plant anatomical entity]"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Term Source REF (MIAPPE:0078)"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Term Accession Number (MIAPPE:0078)"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Parameter [Sample description]"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Term Source REF (MIAPPE:0079)"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Term Accession Number (MIAPPE:0079)"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Parameter [Collection date]"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Term Source REF (MIAPPE:0080)"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Term Accession Number (MIAPPE:0080)"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Parameter [External ID]"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Term Source REF (MIAPPE:0072) "/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Term Accession Number (MIAPPE:0072) "/>
-    <tableColumn id="11" xr3:uid="{DA033E81-7965-49F6-85AF-4E7588BCC7B6}" name="Sample Name" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D0A2EBC0-B395-41B8-BFAC-1AE9D695102D}" name="annotationTableSpottyHusky28" displayName="annotationTableSpottyHusky28" ref="A1:X4" totalsRowShown="0">
+  <autoFilter ref="A1:X4" xr:uid="{D0A2EBC0-B395-41B8-BFAC-1AE9D695102D}"/>
+  <tableColumns count="24">
+    <tableColumn id="1" xr3:uid="{610F8050-B670-4C5B-9063-8803646321E9}" name="Source Name"/>
+    <tableColumn id="27" xr3:uid="{3BEC008E-8FFA-419A-A5E9-647C2E42A80D}" name="Characteristic [Observation unit type]"/>
+    <tableColumn id="28" xr3:uid="{C80A73FD-9271-4CA2-8A20-F3953FF18206}" name="Term Source REF (MIAPPE:0071)" dataDxfId="13"/>
+    <tableColumn id="29" xr3:uid="{1C6D62F2-2405-4619-87DF-B5695685FF15}" name="Term Accession Number (MIAPPE:0071)" dataDxfId="12"/>
+    <tableColumn id="30" xr3:uid="{1FE11296-9F79-40B2-AF00-8B621C96D20F}" name="Characteristic [External ID]"/>
+    <tableColumn id="31" xr3:uid="{B698CBEC-5D75-496D-97C2-FED5C8A9319B}" name="Term Source REF (MIAPPE:0072)" dataDxfId="11"/>
+    <tableColumn id="32" xr3:uid="{0A5008DC-FD43-4EFC-9BBD-A19A6D06F797}" name="Term Accession Number (MIAPPE:0072)" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{48C70E63-61A5-455A-88A0-DBB113E14C58}" name="Characteristic [Spatial distribution]"/>
+    <tableColumn id="10" xr3:uid="{AB8C4B91-31C2-4185-AED3-846CE672F1F4}" name="Term Source REF (MIAPPE:0073)" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{911CA820-3BF1-4660-BC21-86899B44D009}" name="Term Accession Number (MIAPPE:0073)" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{BCAFE21F-FD74-4911-B0DE-EB01A8D57EF9}" name="Characteristic [Plant structure development stage]"/>
+    <tableColumn id="13" xr3:uid="{9009A78E-E7DE-4C75-AEEE-FB8D1DAD93A0}" name="Term Source REF (MIAPPE:0077)" dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{60F2EFEC-4C05-47C7-B534-E081D5A93A76}" name="Term Accession Number (MIAPPE:0077)" dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{6632A931-B88C-48F9-A04A-B45F0C78330D}" name="Characteristic [Plant anatomical entity]"/>
+    <tableColumn id="16" xr3:uid="{38CF62C5-4F53-42F7-9987-A977A21E1B41}" name="Term Source REF (MIAPPE:0078)" dataDxfId="5"/>
+    <tableColumn id="17" xr3:uid="{284C8F0B-03FE-4395-8119-CBA126F3E69E}" name="Term Accession Number (MIAPPE:0078)" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{2F60DE4A-5D30-4A6C-BDE6-14BCC65FA4A5}" name="Protocol REF"/>
+    <tableColumn id="21" xr3:uid="{FB0641E8-89BE-4571-B857-D903D1722C38}" name="Parameter [Collection date]"/>
+    <tableColumn id="22" xr3:uid="{AE4C092F-8EB0-4738-B7BB-67C515575ED2}" name="Term Source REF (MIAPPE:0080)" dataDxfId="3"/>
+    <tableColumn id="23" xr3:uid="{2D01525D-E610-4E9D-A884-2C88FCE1067D}" name="Term Accession Number (MIAPPE:0080)" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{1160FA4C-52C9-44A6-B507-FA884EC91828}" name="Sample Name"/>
+    <tableColumn id="24" xr3:uid="{1D9C5E3D-6C4D-45DA-BF9C-8288EEA6DBAB}" name="Parameter [External ID]"/>
+    <tableColumn id="25" xr3:uid="{E208FEB2-7FCB-4FCA-8947-A90E47C81B0D}" name="Term Source REF (MIAPPE:0072) " dataDxfId="1"/>
+    <tableColumn id="26" xr3:uid="{BE607A43-4A54-43DE-9356-1C028F57CC1E}" name="Term Accession Number (MIAPPE:0072) " dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1119,61 +1020,76 @@
 </a:theme>
 </file>
 
-<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
-<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="525" row="2">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </wetp:taskpane>
-</wetp:taskpanes>
-</file>
-
-<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{FEC48FCE-FA6A-4508-86E4-DBDDB42F7D2F}">
-  <we:reference id="5d6f5462-3401-48ec-9406-d12882e9ad83" version="0.6.2.0" store="\\MARTINSSURFACE\nfdi_manifest_Martin" storeType="Filesystem"/>
-  <we:alternateReferences/>
-  <we:properties/>
-  <we:bindings/>
-  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</we:webextension>
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A1" dT="2023-02-22T15:23:28.00" personId="{89C81692-8F7C-40C3-B7EE-D467298216E9}" id="{8BF36169-509E-40E6-A863-E736F38BEFB5}">
+    <text>The unique identifier of this template. It will be auto generated.</text>
+  </threadedComment>
+  <threadedComment ref="A1" dT="2023-02-22T15:23:28.00" personId="{89C81692-8F7C-40C3-B7EE-D467298216E9}" id="{6C376606-D8E4-457E-9F91-C585F6709A02}" parentId="{8BF36169-509E-40E6-A863-E736F38BEFB5}">
+    <text>id=c484dc51-5ba0-455c-8b1b-359642fca2ef</text>
+  </threadedComment>
+  <threadedComment ref="A2" dT="2023-02-22T15:23:28.00" personId="{89C81692-8F7C-40C3-B7EE-D467298216E9}" id="{2BB17859-3F3E-489F-BEA0-FB721FD4DF41}">
+    <text>The name of the Swate template.</text>
+  </threadedComment>
+  <threadedComment ref="A3" dT="2023-02-22T15:23:28.00" personId="{89C81692-8F7C-40C3-B7EE-D467298216E9}" id="{DEF52EF9-3A29-4CF0-B150-5FFBB68950E8}">
+    <text>The current version of this template in SemVer notation.</text>
+  </threadedComment>
+  <threadedComment ref="A4" dT="2023-02-22T15:23:28.00" personId="{89C81692-8F7C-40C3-B7EE-D467298216E9}" id="{2AD88D6D-CB7D-4507-9375-940DEBECC61F}">
+    <text>The description of this template. Use few sentences for succinctness.</text>
+  </threadedComment>
+  <threadedComment ref="A5" dT="2023-02-22T15:23:28.02" personId="{89C81692-8F7C-40C3-B7EE-D467298216E9}" id="{D7785EFF-39BE-441A-928F-0C6291AF0EEC}">
+    <text>The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</text>
+  </threadedComment>
+  <threadedComment ref="A6" dT="2023-02-22T15:23:28.02" personId="{89C81692-8F7C-40C3-B7EE-D467298216E9}" id="{6E767040-48A5-476C-9DA9-E33D30A30F95}">
+    <text>The name of the Swate annotation table in the workbook of the template's excel file.</text>
+  </threadedComment>
+  <threadedComment ref="A7" dT="2023-02-22T15:23:28.02" personId="{89C81692-8F7C-40C3-B7EE-D467298216E9}" id="{1E7522A5-945C-4EE6-A494-4AA4493A4156}">
+    <text>A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms.</text>
+  </threadedComment>
+  <threadedComment ref="A11" dT="2023-02-22T15:23:28.02" personId="{89C81692-8F7C-40C3-B7EE-D467298216E9}" id="{054F6C2B-DCE6-419B-9EB8-82368D9E43BC}">
+    <text>A list of all tags associated with this template. Tags are realized as Terms.</text>
+  </threadedComment>
+  <threadedComment ref="A15" dT="2023-02-22T15:23:28.02" personId="{89C81692-8F7C-40C3-B7EE-D467298216E9}" id="{7FBEE1EC-59BE-44C4-B145-187D73ACDC36}">
+    <text>The author(s) of this template.</text>
+  </threadedComment>
+</ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{325591A7-B220-4CD4-9A24-1DF49186172F}">
+  <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.85546875" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="39.7109375" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.85546875" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="39.7109375" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="51.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="51.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="49.5703125" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="54.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="49.5703125" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="32.85546875" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="39.140625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="32.85546875" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="112.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="32.42578125" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="33.28515625" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="28.7109375" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="24.85546875" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="52.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.85546875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="39.7109375" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="32.85546875" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="39.7109375" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="15.85546875" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1205,192 +1121,173 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="X1" t="s">
+    </row>
+    <row r="2" spans="1:24" ht="161.25">
+      <c r="B2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" ht="141" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="1" t="s">
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1" t="s">
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1" t="s">
+      <c r="R2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1" t="s">
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1" t="s">
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="B3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3" t="s">
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="1" t="s">
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="1" t="s">
+      <c r="R3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3" t="s">
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="B4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3" t="s">
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3" t="s">
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3" t="s">
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3" t="s">
+      <c r="R4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3" t="s">
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2" t="s">
-        <v>89</v>
-      </c>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -1398,271 +1295,272 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC8FD5DC-2702-4957-AFD1-A0537AF7234E}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
+    <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B2" s="9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="4" spans="1:5" ht="50.25" customHeight="1">
+      <c r="A4" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B4" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B5" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B6" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="10"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="10"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="10"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="9"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="5" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="10" t="s">
+      <c r="B19" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C19" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="9"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D8" t="s">
+      <c r="B21" s="9"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="9"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="5" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="B23" s="9" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" s="9"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="C23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D12" t="s">
+      <c r="B24" s="9"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" s="9"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="E12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="B26" s="9"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" s="9"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" s="7"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B20" s="7"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" s="7"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22" s="7"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B24" s="7"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B25" s="7"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B26" s="7"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="B27" s="14"/>
+      <c r="B27" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B19" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="C19" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B19" r:id="rId1" xr:uid="{FEABDA64-4CEF-41BD-89E1-DD077E60F721}"/>
+    <hyperlink ref="C19" r:id="rId2" xr:uid="{6A3832B3-84E8-4B23-B402-8542E41513F6}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/templates/dataplant/MIAPPE_Observation_unit_and_sample.xlsx
+++ b/templates/dataplant/MIAPPE_Observation_unit_and_sample.xlsx
@@ -186,7 +186,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="95">
   <si>
     <t xml:space="preserve">Source Name</t>
   </si>
@@ -249,15 +249,6 @@
   </si>
   <si>
     <t xml:space="preserve">Sample Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parameter [External ID]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Term Source REF (MIAPPE:0072) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Term Accession Number (MIAPPE:0072) </t>
   </si>
   <si>
     <t xml:space="preserve">Type of observation unit in textual form, usually one of the following: study, block, sub-block, plot, sub-plot, pot, plant. Use of other observation unit types is possible but not recommended.
@@ -282,9 +273,6 @@
     <t xml:space="preserve">The date and time when the sample was collected / harvested</t>
   </si>
   <si>
-    <t xml:space="preserve">An identifier for the sample in a persistent repository, comprising the name of the repository and the accession number of the observation unit therein. Submission to the EBI Biosamples repository is recommended. URI are recommended when possible.</t>
-  </si>
-  <si>
     <t xml:space="preserve">plot</t>
   </si>
   <si>
@@ -321,9 +309,6 @@
   </si>
   <si>
     <t xml:space="preserve">Date/Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique identifier</t>
   </si>
   <si>
     <t xml:space="preserve">Id</t>
@@ -836,9 +821,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="annotationTableSpottyHusky28" displayName="annotationTableSpottyHusky28" ref="A1:X4" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:X4"/>
-  <tableColumns count="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="annotationTableSpottyHusky28" displayName="annotationTableSpottyHusky28" ref="A1:U4" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:U4"/>
+  <tableColumns count="21">
     <tableColumn id="1" name="Source Name"/>
     <tableColumn id="2" name="Characteristic [Observation unit type]"/>
     <tableColumn id="3" name="Term Source REF (MIAPPE:0071)"/>
@@ -860,9 +845,6 @@
     <tableColumn id="19" name="Term Source REF (MIAPPE:0080)"/>
     <tableColumn id="20" name="Term Accession Number (MIAPPE:0080)"/>
     <tableColumn id="21" name="Sample Name"/>
-    <tableColumn id="22" name="Parameter [External ID]"/>
-    <tableColumn id="23" name="Term Source REF (MIAPPE:0072) "/>
-    <tableColumn id="24" name="Term Accession Number (MIAPPE:0072) "/>
   </tableColumns>
 </table>
 </file>
@@ -872,40 +854,39 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q2" activeCellId="0" sqref="Q2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.85"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="3" min="3" style="0" width="32.86"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="0" width="39.71"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="0" width="39.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="27.72"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="6" min="6" style="0" width="32.86"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="7" min="7" style="0" width="39.71"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="7" min="7" style="0" width="39.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="51.43"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="9" min="9" style="0" width="49.57"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="10" min="10" style="0" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="52.28"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="12" min="12" style="0" width="32.86"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="13" min="13" style="0" width="39.71"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="13" min="13" style="0" width="39.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="39.14"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="15" min="15" style="0" width="32.86"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="16" min="16" style="0" width="39.71"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="16" min="16" style="0" width="39.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="14.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="28.72"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="19" min="19" style="0" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="20" min="20" style="0" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="15.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="24.85"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="24" min="23" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="0" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -969,134 +950,110 @@
       <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
-      <c r="V2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="6"/>
       <c r="R3" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
-      <c r="V3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
-      <c r="V4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1123,7 +1080,7 @@
       <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="57.15"/>
@@ -1131,248 +1088,248 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B7" s="12"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B11" s="12"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B15" s="12"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B18" s="10"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B20" s="10"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B21" s="10"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B22" s="10"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B24" s="10"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B25" s="10"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B26" s="10"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="17" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B27" s="18"/>
     </row>

--- a/templates/dataplant/MIAPPE_Observation_unit_and_sample.xlsx
+++ b/templates/dataplant/MIAPPE_Observation_unit_and_sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/SWATE_templates/templates/dataplant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0147A0A4-9320-BF45-AC54-EC4D73A1CC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040C19B2-7055-C542-86DC-814B603C0AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3880" yWindow="-20980" windowWidth="36420" windowHeight="20300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3880" yWindow="-20980" windowWidth="36420" windowHeight="20300" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MIAPPE_obs_unit_and_sample" sheetId="3" r:id="rId1"/>
@@ -328,9 +328,6 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -470,6 +467,9 @@
   </si>
   <si>
     <t>annotationTableBrightNewt8</t>
+  </si>
+  <si>
+    <t>1.0.1</t>
   </si>
 </sst>
 </file>
@@ -496,7 +496,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -678,62 +678,62 @@
   </cellStyles>
   <dxfs count="22">
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
       <font>
         <sz val="10"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -833,28 +833,28 @@
   <autoFilter ref="A1:X4" xr:uid="{4A6DAB9D-4524-F648-A1DE-AC8C8280BFCD}"/>
   <tableColumns count="24">
     <tableColumn id="1" xr3:uid="{28B4C98C-AC33-D547-8165-F984A2CB91E5}" name="Source Name"/>
-    <tableColumn id="23" xr3:uid="{C1766BF4-19F3-6749-872B-5CBFA07DC13F}" name="Protocol Type" dataDxfId="9"/>
-    <tableColumn id="24" xr3:uid="{BEA052B5-5F10-9D4D-BA4D-FCBA106EFA26}" name="Term Source REF (DPBO:1000161)" dataDxfId="8"/>
-    <tableColumn id="25" xr3:uid="{736E2417-11DE-474C-9191-D50FE41CA9B2}" name="Term Accession Number (DPBO:1000161)" dataDxfId="7"/>
-    <tableColumn id="19" xr3:uid="{5102F6D1-1B61-6548-B55D-A1EB33183CD8}" name="Protocol REF" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{9B45F387-9344-3A43-96F8-A6D00256CFAB}" name="Characteristic [Observation unit type]" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{50BEF39F-F2E5-9649-9E92-D196B2D08B9E}" name="Term Source REF (MIAPPE:0071)" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{8EBCCFE1-411A-064B-B876-B9AC6EC6F976}" name="Term Accession Number (MIAPPE:0071)" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{B6FD4C8D-D6CF-4D42-9595-C56292231050}" name="Characteristic [External ID]" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{DE445316-8EC4-604F-A0A6-A6DD9B2B3204}" name="Term Source REF (MIAPPE:0072)" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{79D692CE-7DFD-544B-B547-D25D82C8330D}" name="Term Accession Number (MIAPPE:0072)" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{47ED89A8-3154-1649-81CC-C01CAED068AB}" name="Characteristic [Spatial distribution]" dataDxfId="16"/>
-    <tableColumn id="10" xr3:uid="{181D1B1B-5749-1240-8A86-C53210E01363}" name="Term Source REF (MIAPPE:0073)" dataDxfId="15"/>
-    <tableColumn id="11" xr3:uid="{5A564975-312B-A448-94A6-9B67D856F285}" name="Term Accession Number (MIAPPE:0073)" dataDxfId="14"/>
-    <tableColumn id="12" xr3:uid="{A1307374-4C12-F04C-8ADF-89B288BF004E}" name="Characteristic [Plant structure development stage]" dataDxfId="13"/>
-    <tableColumn id="13" xr3:uid="{24672B2A-B675-DC47-8C9B-5D31EF4E2BE5}" name="Term Source REF (MIAPPE:0077)" dataDxfId="12"/>
-    <tableColumn id="14" xr3:uid="{C9B54A49-738A-FF4A-9E41-42C4617779A7}" name="Term Accession Number (MIAPPE:0077)" dataDxfId="11"/>
-    <tableColumn id="26" xr3:uid="{785FE989-7511-6D4F-B10C-6849B2E15CCC}" name="Characteristic [Plant anatomical entity]" dataDxfId="6"/>
-    <tableColumn id="27" xr3:uid="{4D3F7C56-486B-D147-B92D-4D78166F4267}" name="Term Source REF (MIAPPE:0078)" dataDxfId="5"/>
-    <tableColumn id="28" xr3:uid="{ADFE96AB-45FE-C54D-83D8-DD5BE50F75D3}" name="Term Accession Number (MIAPPE:0078)" dataDxfId="4"/>
-    <tableColumn id="29" xr3:uid="{F5F3C660-7893-CC4D-A1AE-6685809EE114}" name="Characteristic [Collection date]" dataDxfId="3"/>
-    <tableColumn id="30" xr3:uid="{7B8C7C49-3091-A04B-BD1B-AEDB2EEAE992}" name="Term Source REF (MIAPPE:0080)" dataDxfId="2"/>
-    <tableColumn id="31" xr3:uid="{7F64E2FF-780F-6F40-A2CE-8A525BD07484}" name="Term Accession Number (MIAPPE:0080)" dataDxfId="1"/>
+    <tableColumn id="23" xr3:uid="{C1766BF4-19F3-6749-872B-5CBFA07DC13F}" name="Protocol Type" dataDxfId="21"/>
+    <tableColumn id="24" xr3:uid="{BEA052B5-5F10-9D4D-BA4D-FCBA106EFA26}" name="Term Source REF (DPBO:1000161)" dataDxfId="20"/>
+    <tableColumn id="25" xr3:uid="{736E2417-11DE-474C-9191-D50FE41CA9B2}" name="Term Accession Number (DPBO:1000161)" dataDxfId="19"/>
+    <tableColumn id="19" xr3:uid="{5102F6D1-1B61-6548-B55D-A1EB33183CD8}" name="Protocol REF" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{9B45F387-9344-3A43-96F8-A6D00256CFAB}" name="Characteristic [Observation unit type]" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{50BEF39F-F2E5-9649-9E92-D196B2D08B9E}" name="Term Source REF (MIAPPE:0071)" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{8EBCCFE1-411A-064B-B876-B9AC6EC6F976}" name="Term Accession Number (MIAPPE:0071)" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{B6FD4C8D-D6CF-4D42-9595-C56292231050}" name="Characteristic [External ID]" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{DE445316-8EC4-604F-A0A6-A6DD9B2B3204}" name="Term Source REF (MIAPPE:0072)" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{79D692CE-7DFD-544B-B547-D25D82C8330D}" name="Term Accession Number (MIAPPE:0072)" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{47ED89A8-3154-1649-81CC-C01CAED068AB}" name="Characteristic [Spatial distribution]" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{181D1B1B-5749-1240-8A86-C53210E01363}" name="Term Source REF (MIAPPE:0073)" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{5A564975-312B-A448-94A6-9B67D856F285}" name="Term Accession Number (MIAPPE:0073)" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{A1307374-4C12-F04C-8ADF-89B288BF004E}" name="Characteristic [Plant structure development stage]" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{24672B2A-B675-DC47-8C9B-5D31EF4E2BE5}" name="Term Source REF (MIAPPE:0077)" dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{C9B54A49-738A-FF4A-9E41-42C4617779A7}" name="Term Accession Number (MIAPPE:0077)" dataDxfId="6"/>
+    <tableColumn id="26" xr3:uid="{785FE989-7511-6D4F-B10C-6849B2E15CCC}" name="Characteristic [Plant anatomical entity]" dataDxfId="5"/>
+    <tableColumn id="27" xr3:uid="{4D3F7C56-486B-D147-B92D-4D78166F4267}" name="Term Source REF (MIAPPE:0078)" dataDxfId="4"/>
+    <tableColumn id="28" xr3:uid="{ADFE96AB-45FE-C54D-83D8-DD5BE50F75D3}" name="Term Accession Number (MIAPPE:0078)" dataDxfId="3"/>
+    <tableColumn id="29" xr3:uid="{F5F3C660-7893-CC4D-A1AE-6685809EE114}" name="Characteristic [Collection date]" dataDxfId="2"/>
+    <tableColumn id="30" xr3:uid="{7B8C7C49-3091-A04B-BD1B-AEDB2EEAE992}" name="Term Source REF (MIAPPE:0080)" dataDxfId="1"/>
+    <tableColumn id="31" xr3:uid="{7F64E2FF-780F-6F40-A2CE-8A525BD07484}" name="Term Accession Number (MIAPPE:0080)" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{5AD396F0-37BD-3C4F-9327-332530B296DE}" name="Sample Name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1178,7 +1178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B62E448-DEF7-6F47-8969-B1DF19D13856}">
   <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -1215,13 +1215,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" t="s">
         <v>87</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>88</v>
-      </c>
-      <c r="D1" t="s">
-        <v>89</v>
       </c>
       <c r="E1" t="s">
         <v>16</v>
@@ -1272,7 +1272,7 @@
         <v>15</v>
       </c>
       <c r="U1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V1" t="s">
         <v>17</v>
@@ -1287,10 +1287,10 @@
     <row r="2" spans="1:24" ht="165" x14ac:dyDescent="0.2">
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>25</v>
@@ -1299,55 +1299,55 @@
         <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I2" s="15" t="s">
         <v>21</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L2" s="15" t="s">
         <v>22</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O2" s="15" t="s">
         <v>23</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R2" s="15" t="s">
         <v>24</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="U2" s="15" t="s">
         <v>26</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="30" x14ac:dyDescent="0.2">
@@ -1434,8 +1434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1467,48 +1467,48 @@
         <v>43</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="8"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" s="9"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="2"/>
@@ -1516,7 +1516,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="2"/>
@@ -1524,152 +1524,152 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="8"/>
     </row>
     <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="C12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" s="8"/>
     </row>
     <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="C16" t="s">
         <v>68</v>
-      </c>
-      <c r="C16" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="C17" t="s">
         <v>71</v>
-      </c>
-      <c r="C17" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B18" s="6"/>
     </row>
     <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="C19" s="12" t="s">
         <v>75</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B20" s="6"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B21" s="6"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B22" s="6"/>
     </row>
     <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>81</v>
-      </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B24" s="6"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B25" s="6"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B26" s="6"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B27" s="14"/>
     </row>

--- a/templates/dataplant/MIAPPE_Observation_unit_and_sample.xlsx
+++ b/templates/dataplant/MIAPPE_Observation_unit_and_sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\dataplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B256FAD3-C058-41C3-AB53-67AE26343930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1414EECE-EE88-4243-889C-5E889D82F9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7E9CD3DF-E2E8-475D-95F1-31F0DF9DBD6D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{7E9CD3DF-E2E8-475D-95F1-31F0DF9DBD6D}"/>
   </bookViews>
   <sheets>
     <sheet name="observation_unit_sample" sheetId="1" r:id="rId1"/>
@@ -52,75 +52,75 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{8F44D293-C562-4F14-89BF-01BCA2EC655A}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The unique identifier of this template. It will be auto generated.
-Reply:
+Antwort:
     id=15c74f32-be49-4154-8421-325580721bbc</t>
       </text>
     </comment>
     <comment ref="A2" authorId="1" shapeId="0" xr:uid="{6D351B17-E81E-44BB-97CF-22A671E0F2D5}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the Swate template.</t>
       </text>
     </comment>
     <comment ref="A3" authorId="2" shapeId="0" xr:uid="{0FE049F1-772C-4B04-9FC7-26DF84C624A3}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The current version of this template in SemVer notation.</t>
       </text>
     </comment>
     <comment ref="A4" authorId="3" shapeId="0" xr:uid="{E978B28E-91A8-4DC1-86FD-156BA04DC2FD}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The description of this template. Use few sentences for succinctness.</t>
       </text>
     </comment>
     <comment ref="A5" authorId="4" shapeId="0" xr:uid="{D9DC072E-7BDD-405E-BF76-8F714C50E9D9}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</t>
       </text>
     </comment>
     <comment ref="A6" authorId="5" shapeId="0" xr:uid="{C6109CC6-A295-4211-AEDD-552BA69FF7B0}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the Swate annotation table in the workbook of the template's excel file.</t>
       </text>
     </comment>
     <comment ref="A7" authorId="6" shapeId="0" xr:uid="{E0EEDEC2-9D26-436A-98A6-54AE27995975}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms.</t>
       </text>
     </comment>
     <comment ref="A11" authorId="7" shapeId="0" xr:uid="{4564FC52-D9A3-4DE0-89C6-7336888FDA98}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     A list of all tags associated with this template. Tags are realized as Terms.</t>
       </text>
     </comment>
     <comment ref="A15" authorId="8" shapeId="0" xr:uid="{FCABE9C7-F228-450C-A97E-0F41E8625BD0}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The author(s) of this template.</t>
       </text>
     </comment>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="75">
   <si>
     <t>Source Name</t>
   </si>
@@ -308,9 +308,6 @@
     <t>Observation Unit</t>
   </si>
   <si>
-    <t>Study</t>
-  </si>
-  <si>
     <t>growth protocol</t>
   </si>
   <si>
@@ -348,6 +345,15 @@
   </si>
   <si>
     <t>http://www.ebi.ac.uk/efo/EFO_0003789</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C63536</t>
+  </si>
+  <si>
+    <t>NCIT</t>
   </si>
 </sst>
 </file>
@@ -533,8 +539,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="22">
     <dxf>
@@ -676,9 +682,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -716,7 +722,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -822,7 +828,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -964,7 +970,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1027,11 +1033,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA9F0BE-ADF0-48C9-9B04-90277DABC891}">
   <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
@@ -1217,11 +1223,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02E5E86C-97EC-44C7-A918-874195F0748E}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.5546875" customWidth="1"/>
@@ -1317,10 +1323,10 @@
         <v>58</v>
       </c>
       <c r="D12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" t="s">
         <v>59</v>
-      </c>
-      <c r="E12" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1329,9 +1335,11 @@
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
+      <c r="D13" s="11" t="s">
+        <v>73</v>
+      </c>
       <c r="E13" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1343,10 +1351,10 @@
         <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1360,13 +1368,13 @@
         <v>17</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1374,13 +1382,13 @@
         <v>18</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1394,13 +1402,13 @@
         <v>20</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1426,13 +1434,13 @@
         <v>24</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1465,8 +1473,9 @@
     <hyperlink ref="C19" r:id="rId2" xr:uid="{1CDF2700-D55E-4B23-890C-701E2C8A337F}"/>
     <hyperlink ref="D19" r:id="rId3" xr:uid="{A06D8095-6C30-415D-85A8-C03FAADDBA43}"/>
     <hyperlink ref="E13" r:id="rId4" xr:uid="{5CD222E4-1995-470A-8983-1E2CEC78C80B}"/>
+    <hyperlink ref="D13" r:id="rId5" xr:uid="{7654FAD0-D40E-460C-AB26-B2E835B74412}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId5"/>
+  <legacyDrawing r:id="rId6"/>
 </worksheet>
 </file>
--- a/templates/dataplant/MIAPPE_Observation_unit_and_sample.xlsx
+++ b/templates/dataplant/MIAPPE_Observation_unit_and_sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\dataplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1414EECE-EE88-4243-889C-5E889D82F9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8D877D-BD44-4778-A98A-16867FB89D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{7E9CD3DF-E2E8-475D-95F1-31F0DF9DBD6D}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{7E9CD3DF-E2E8-475D-95F1-31F0DF9DBD6D}"/>
   </bookViews>
   <sheets>
     <sheet name="observation_unit_sample" sheetId="1" r:id="rId1"/>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
   <si>
     <t>Source Name</t>
   </si>
@@ -308,12 +308,6 @@
     <t>Observation Unit</t>
   </si>
   <si>
-    <t>growth protocol</t>
-  </si>
-  <si>
-    <t>EFO</t>
-  </si>
-  <si>
     <t>Dörpholz</t>
   </si>
   <si>
@@ -344,23 +338,26 @@
     <t>s.eggels@fz-juelich.de</t>
   </si>
   <si>
-    <t>http://www.ebi.ac.uk/efo/EFO_0003789</t>
-  </si>
-  <si>
     <t>study</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C63536</t>
-  </si>
-  <si>
-    <t>NCIT</t>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>GO:0040007</t>
+  </si>
+  <si>
+    <t>NCIT:C63536</t>
+  </si>
+  <si>
+    <t>MIAPPE:0069</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,6 +377,12 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFF5F5F5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -500,7 +503,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -537,6 +540,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1223,8 +1227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02E5E86C-97EC-44C7-A918-874195F0748E}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1323,10 +1327,10 @@
         <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1334,11 +1338,13 @@
         <v>14</v>
       </c>
       <c r="B13" s="6"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11" t="s">
+      <c r="C13" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="D13" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1347,15 +1353,6 @@
         <v>15</v>
       </c>
       <c r="B14" s="6"/>
-      <c r="C14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -1368,13 +1365,13 @@
         <v>17</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1382,13 +1379,13 @@
         <v>18</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1402,13 +1399,13 @@
         <v>20</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1434,13 +1431,13 @@
         <v>24</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1472,10 +1469,9 @@
     <hyperlink ref="B19" r:id="rId1" xr:uid="{C5F297E6-F84D-47D8-97BF-EC2A4F663A85}"/>
     <hyperlink ref="C19" r:id="rId2" xr:uid="{1CDF2700-D55E-4B23-890C-701E2C8A337F}"/>
     <hyperlink ref="D19" r:id="rId3" xr:uid="{A06D8095-6C30-415D-85A8-C03FAADDBA43}"/>
-    <hyperlink ref="E13" r:id="rId4" xr:uid="{5CD222E4-1995-470A-8983-1E2CEC78C80B}"/>
-    <hyperlink ref="D13" r:id="rId5" xr:uid="{7654FAD0-D40E-460C-AB26-B2E835B74412}"/>
+    <hyperlink ref="D13" r:id="rId4" display="http://purl.obolibrary.org/obo/NCIT_C63536" xr:uid="{7654FAD0-D40E-460C-AB26-B2E835B74412}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId6"/>
+  <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>